--- a/Technology/Software/Clear Secure.xlsx
+++ b/Technology/Software/Clear Secure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586D49F4-4522-0C4A-9351-F80EC3335E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215A21CF-0D00-E84C-B099-582008AA2844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2224,13 +2224,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>35</v>
-    <v>18.790800000000001</v>
-    <v>1.546</v>
-    <v>0.69</v>
-    <v>2.7359000000000001E-2</v>
-    <v>-0.06</v>
-    <v>-2.3159999999999999E-3</v>
+    <v>34.718000000000004</v>
+    <v>18.639399999999998</v>
+    <v>1.5289999999999999</v>
+    <v>-1.65</v>
+    <v>-6.1269999999999998E-2</v>
+    <v>-0.12</v>
+    <v>-4.7559999999999998E-3</v>
     <v>USD</v>
     <v>Clear Secure, Inc. is an identity company. The Company offers secure identity platform, which is a multi-layered infrastructure consisting of both front-end, including enrollment, verification and linking, and its robust, secure and scalable back end. Its platform confirms identity on an opt-in basis using credential authentication, biometric capture technology, liveness detection for anti-spoofing, biometric matching, backend identity proofing and other technologies to link an individual’s identity and their biometrics (eyes, face and fingerprints). Its offerings include CLEAR Plus, a consumer aviation subscription service, which enables access to predictable and fast experiences through entry lanes in airport security checkpoints nationwide; the flagship CLEAR App, which offers free to consumer products like Home to Gate and Health Pass; and Reserve powered by CLEAR, its virtual queuing technology that enables customers to manage lines. It also has software development kits (SDKs).</v>
     <v>3056</v>
@@ -2238,25 +2238,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>85 10Th Ave., 9Th Floor, NEW YORK, NY, 10011 US</v>
-    <v>25.94</v>
+    <v>26.97</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.99519329844</v>
+    <v>45065.952008089844</v>
     <v>0</v>
-    <v>25</v>
-    <v>3973223000</v>
+    <v>24.77</v>
+    <v>3873141216</v>
     <v>CLEAR SECURE, INC.</v>
     <v>CLEAR SECURE, INC.</v>
-    <v>25.07</v>
+    <v>26.97</v>
     <v>0</v>
-    <v>25.22</v>
-    <v>25.91</v>
-    <v>25.85</v>
-    <v>153347100</v>
+    <v>26.93</v>
+    <v>25.28</v>
+    <v>25.11</v>
+    <v>153209700</v>
     <v>YOU</v>
     <v>CLEAR SECURE, INC. (XNYS:YOU)</v>
-    <v>643863</v>
-    <v>1235785</v>
+    <v>1476253</v>
+    <v>1246509</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2421,9 +2421,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2844,10 +2844,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F122" sqref="F122"/>
+      <selection pane="bottomRight" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3353,15 +3353,15 @@
       </c>
       <c r="L16" s="32">
         <f>M101/E3</f>
-        <v>9.0830228102982389</v>
+        <v>8.8542299318297157</v>
       </c>
       <c r="M16" s="32">
         <f>M101/E25</f>
-        <v>-62.559603848152285</v>
+        <v>-60.983785737903673</v>
       </c>
       <c r="N16" s="33">
         <f>M101/E106</f>
-        <v>29.012639834097612</v>
+        <v>28.281838478838683</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="M95" s="60" cm="1">
         <f t="array" ref="M95">_FV(A1,"Beta")</f>
-        <v>1.546</v>
+        <v>1.5289999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="M97" s="39">
         <f>(M94)+((M95)*(M96-M94))</f>
-        <v>0.10750530000000001</v>
+        <v>0.10677345000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="M101" s="53" cm="1">
         <f t="array" ref="M101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3973223000</v>
+        <v>3873141216</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="M103" s="41">
         <f>M99+M101</f>
-        <v>3973223000</v>
+        <v>3873141216</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -5060,7 +5060,7 @@
       </c>
       <c r="M105" s="25">
         <f>(M100*M92)+(M102*M97)</f>
-        <v>0.10750530000000001</v>
+        <v>0.10677345000000001</v>
       </c>
       <c r="N105" s="15"/>
     </row>
@@ -5123,7 +5123,7 @@
       <c r="I107" s="43"/>
       <c r="J107" s="46">
         <f>J106*(1+M107)/(M108-M107)</f>
-        <v>4542364220.2338448</v>
+        <v>4583017136.9761152</v>
       </c>
       <c r="K107" s="47" t="s">
         <v>148</v>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="J108" s="46">
         <f>J107+J106</f>
-        <v>4907992632.6237564</v>
+        <v>4948645549.3660269</v>
       </c>
       <c r="K108" s="47" t="s">
         <v>144</v>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="M108" s="51">
         <f>M105</f>
-        <v>0.10750530000000001</v>
+        <v>0.10677345000000001</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5179,7 +5179,7 @@
       </c>
       <c r="G110" s="53">
         <f>NPV(M108,F108,G108,H108,I108,J108)</f>
-        <v>3642881459.6598773</v>
+        <v>3678320174.2211108</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="G113" s="53">
         <f>G110+G111-G112</f>
-        <v>4347630459.6598778</v>
+        <v>4383069174.2211113</v>
       </c>
     </row>
     <row r="114" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="G115" s="56">
         <f>G113/G114</f>
-        <v>36.929639613094849</v>
+        <v>37.230663117562635</v>
       </c>
     </row>
     <row r="116" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="G116" s="61" cm="1">
         <f t="array" ref="G116">_FV(A1,"Price")</f>
-        <v>25.91</v>
+        <v>25.28</v>
       </c>
     </row>
     <row r="117" spans="6:7" ht="20" x14ac:dyDescent="0.25">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="G117" s="58">
         <f>G115/G116-1</f>
-        <v>0.42530450069837311</v>
+        <v>0.4727319271187751</v>
       </c>
     </row>
     <row r="118" spans="6:7" ht="20" x14ac:dyDescent="0.25">
